--- a/dados_producao.xlsx
+++ b/dados_producao.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>diametro</t>
   </si>
@@ -120,9 +121,6 @@
     <t>rectangle</t>
   </si>
   <si>
-    <t>Teste1</t>
-  </si>
-  <si>
     <t>furo_5_diametro</t>
   </si>
   <si>
@@ -159,41 +157,44 @@
     <t>furo_8_y</t>
   </si>
   <si>
-    <t>25,4</t>
+    <t>ch.base.1</t>
   </si>
   <si>
-    <t>38,1</t>
+    <t>ct.2</t>
   </si>
   <si>
-    <t>Teste2</t>
+    <t>ch.topo.1</t>
   </si>
   <si>
-    <t>Teste3</t>
+    <t>ch.base.2</t>
   </si>
   <si>
-    <t>Teste4</t>
+    <t>ch.topo.2</t>
   </si>
   <si>
-    <t>Teste5</t>
+    <t>TERÇA</t>
   </si>
   <si>
-    <t>Teste6</t>
+    <t>DESENHO CHAPAS CORTADAS J.P. 12-11-25 - RODRIGO KASCHUK- NOROAÇO</t>
   </si>
   <si>
-    <t>Teste7</t>
+    <t>10</t>
   </si>
   <si>
-    <t>Teste8</t>
+    <t>7.9</t>
   </si>
   <si>
-    <t>Teste9</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4.75</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,13 +227,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -403,15 +397,15 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,12 +709,12 @@
   <dimension ref="A1:BE274"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:AD2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="65" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.21875" customWidth="1"/>
     <col min="3" max="3" width="7.77734375" customWidth="1"/>
     <col min="4" max="4" width="5.77734375" bestFit="1" customWidth="1"/>
@@ -764,121 +758,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="30" t="s">
+      <c r="P1" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="30" t="s">
+      <c r="Q1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="30" t="s">
+      <c r="S1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="U1" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="V1" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="W1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="X1" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="X1" s="30" t="s">
+      <c r="Y1" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Z1" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="AA1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AB1" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AC1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AD1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE1" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AE1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" s="30" t="s">
+      <c r="AL1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="32" t="s">
+      <c r="AM1" s="30" t="s">
         <v>18</v>
       </c>
       <c r="AN1" s="9" t="s">
@@ -934,48 +928,96 @@
       </c>
     </row>
     <row r="2" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>33</v>
+      <c r="A2" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="6">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D2" s="6">
-        <v>575</v>
-      </c>
-      <c r="E2" s="29">
-        <v>68</v>
+        <v>300</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="G2" s="11">
+        <v>18</v>
+      </c>
+      <c r="H2" s="11">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11">
+        <v>30</v>
+      </c>
+      <c r="J2" s="10">
+        <v>18</v>
+      </c>
+      <c r="K2" s="10">
+        <v>270</v>
+      </c>
+      <c r="L2" s="10">
+        <v>30</v>
+      </c>
+      <c r="M2" s="12">
+        <v>18</v>
+      </c>
+      <c r="N2" s="12">
+        <v>30</v>
+      </c>
+      <c r="O2" s="12">
+        <v>270</v>
+      </c>
+      <c r="P2" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>270</v>
+      </c>
+      <c r="R2" s="13">
+        <v>270</v>
+      </c>
+      <c r="S2" s="18">
+        <v>0</v>
+      </c>
+      <c r="T2" s="18">
+        <v>0</v>
+      </c>
+      <c r="U2" s="18">
+        <v>0</v>
+      </c>
+      <c r="V2" s="20">
+        <v>0</v>
+      </c>
+      <c r="W2" s="20">
+        <v>0</v>
+      </c>
+      <c r="X2" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>0</v>
+      </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6"/>
@@ -990,10 +1032,7 @@
       <c r="AP2" s="6"/>
       <c r="AQ2" s="6"/>
       <c r="AR2" s="6"/>
-      <c r="AT2" s="7">
-        <f>AP2</f>
-        <v>0</v>
-      </c>
+      <c r="AT2" s="7"/>
       <c r="AU2" s="7">
         <f>AQ2</f>
         <v>0</v>
@@ -1040,48 +1079,96 @@
       </c>
     </row>
     <row r="3" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>48</v>
+      <c r="A3" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="6">
+        <v>400</v>
+      </c>
+      <c r="D3" s="6">
+        <v>64</v>
+      </c>
+      <c r="E3" s="26">
+        <v>1</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="11">
+        <v>15</v>
+      </c>
+      <c r="H3" s="11">
+        <v>40</v>
+      </c>
+      <c r="I3" s="11">
+        <v>35</v>
+      </c>
+      <c r="J3" s="10">
+        <v>15</v>
+      </c>
+      <c r="K3" s="10">
+        <v>120</v>
+      </c>
+      <c r="L3" s="10">
+        <v>35</v>
+      </c>
+      <c r="M3" s="12">
+        <v>15</v>
+      </c>
+      <c r="N3" s="12">
+        <v>200</v>
+      </c>
+      <c r="O3" s="12">
+        <v>35</v>
+      </c>
+      <c r="P3" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="13">
         <v>280</v>
       </c>
-      <c r="D3" s="6">
-        <v>325</v>
-      </c>
-      <c r="E3" s="28">
-        <v>16</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="22"/>
-      <c r="Z3" s="22"/>
-      <c r="AA3" s="22"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="27"/>
+      <c r="R3" s="13">
+        <v>35</v>
+      </c>
+      <c r="S3" s="18">
+        <v>15</v>
+      </c>
+      <c r="T3" s="18">
+        <v>360</v>
+      </c>
+      <c r="U3" s="18">
+        <v>35</v>
+      </c>
+      <c r="V3" s="20">
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="27">
+        <v>0</v>
+      </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6"/>
@@ -1093,48 +1180,96 @@
       <c r="AM3" s="9"/>
     </row>
     <row r="4" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
+      <c r="A4" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="6">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="D4" s="6">
-        <v>325</v>
-      </c>
-      <c r="E4" s="28">
-        <v>16</v>
+        <v>200</v>
+      </c>
+      <c r="E4" s="26">
+        <v>1</v>
       </c>
       <c r="F4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
-      <c r="AA4" s="22"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="G4" s="11">
+        <v>15</v>
+      </c>
+      <c r="H4" s="11">
+        <v>25</v>
+      </c>
+      <c r="I4" s="11">
+        <v>25</v>
+      </c>
+      <c r="J4" s="10">
+        <v>15</v>
+      </c>
+      <c r="K4" s="10">
+        <v>25</v>
+      </c>
+      <c r="L4" s="10">
+        <v>75</v>
+      </c>
+      <c r="M4" s="12">
+        <v>15</v>
+      </c>
+      <c r="N4" s="12">
+        <v>25</v>
+      </c>
+      <c r="O4" s="12">
+        <v>125</v>
+      </c>
+      <c r="P4" s="13">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>25</v>
+      </c>
+      <c r="R4" s="13">
+        <v>175</v>
+      </c>
+      <c r="S4" s="18">
+        <v>15</v>
+      </c>
+      <c r="T4" s="18">
+        <v>215</v>
+      </c>
+      <c r="U4" s="18">
+        <v>25</v>
+      </c>
+      <c r="V4" s="20">
+        <v>15</v>
+      </c>
+      <c r="W4" s="20">
+        <v>215</v>
+      </c>
+      <c r="X4" s="20">
+        <v>75</v>
+      </c>
+      <c r="Y4" s="22">
+        <v>15</v>
+      </c>
+      <c r="Z4" s="22">
+        <v>215</v>
+      </c>
+      <c r="AA4" s="22">
+        <v>125</v>
+      </c>
+      <c r="AB4" s="23">
+        <v>15</v>
+      </c>
+      <c r="AC4" s="23">
+        <v>215</v>
+      </c>
+      <c r="AD4" s="27">
+        <v>175</v>
+      </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6"/>
@@ -1146,48 +1281,96 @@
       <c r="AM4" s="9"/>
     </row>
     <row r="5" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>50</v>
+      <c r="A5" s="14" t="s">
+        <v>51</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="17">
-        <v>325</v>
-      </c>
-      <c r="D5" s="17">
-        <v>450</v>
-      </c>
-      <c r="E5" s="28">
-        <v>17</v>
+      <c r="C5" s="6">
+        <v>300</v>
+      </c>
+      <c r="D5" s="6">
+        <v>300</v>
+      </c>
+      <c r="E5" s="26">
+        <v>1</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="G5" s="11">
+        <v>18</v>
+      </c>
+      <c r="H5" s="11">
+        <v>30</v>
+      </c>
+      <c r="I5" s="11">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10">
+        <v>18</v>
+      </c>
+      <c r="K5" s="10">
+        <v>270</v>
+      </c>
+      <c r="L5" s="10">
+        <v>30</v>
+      </c>
+      <c r="M5" s="12">
+        <v>18</v>
+      </c>
+      <c r="N5" s="12">
+        <v>30</v>
+      </c>
+      <c r="O5" s="12">
+        <v>270</v>
+      </c>
+      <c r="P5" s="13">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>270</v>
+      </c>
+      <c r="R5" s="13">
+        <v>270</v>
+      </c>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
+      <c r="V5" s="20">
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="27">
+        <v>0</v>
+      </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6"/>
@@ -1198,48 +1381,96 @@
       <c r="AL5" s="6"/>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="14" t="s">
         <v>51</v>
       </c>
       <c r="B6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="17">
-        <v>250</v>
-      </c>
-      <c r="D6" s="17">
-        <v>550</v>
-      </c>
-      <c r="E6" s="15">
-        <v>136</v>
+      <c r="C6" s="6">
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
+        <v>140</v>
+      </c>
+      <c r="E6" s="26">
+        <v>1</v>
       </c>
       <c r="F6" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="20"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="27"/>
+        <v>55</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0</v>
+      </c>
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="M6" s="12">
+        <v>0</v>
+      </c>
+      <c r="N6" s="12">
+        <v>0</v>
+      </c>
+      <c r="O6" s="12">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
+      <c r="T6" s="18">
+        <v>0</v>
+      </c>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
+      <c r="V6" s="20">
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <v>0</v>
+      </c>
+      <c r="X6" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="27">
+        <v>0</v>
+      </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6"/>
@@ -1250,48 +1481,84 @@
       <c r="AL6" s="6"/>
     </row>
     <row r="7" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="17">
-        <v>250</v>
-      </c>
-      <c r="D7" s="17">
-        <v>550</v>
-      </c>
-      <c r="E7" s="15">
-        <v>136</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="27"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0</v>
+      </c>
+      <c r="N7" s="12">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
+      <c r="V7" s="20">
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="23">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27">
+        <v>0</v>
+      </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6"/>
@@ -1302,24 +1569,12 @@
       <c r="AL7" s="6"/>
     </row>
     <row r="8" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="17">
-        <v>280</v>
-      </c>
-      <c r="D8" s="17">
-        <v>575</v>
-      </c>
-      <c r="E8" s="15">
-        <v>34</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>46</v>
-      </c>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1354,24 +1609,12 @@
       <c r="AL8" s="6"/>
     </row>
     <row r="9" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6">
-        <v>360</v>
-      </c>
-      <c r="D9" s="6">
-        <v>600</v>
-      </c>
-      <c r="E9" s="15">
-        <v>11</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -1406,24 +1649,12 @@
       <c r="AL9" s="6"/>
     </row>
     <row r="10" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6">
-        <v>360</v>
-      </c>
-      <c r="D10" s="6">
-        <v>425</v>
-      </c>
-      <c r="E10" s="15">
-        <v>2</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>47</v>
-      </c>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -1458,11 +1689,11 @@
       <c r="AL10" s="6"/>
     </row>
     <row r="11" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="15"/>
+      <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
@@ -1498,11 +1729,11 @@
       <c r="AL11" s="6"/>
     </row>
     <row r="12" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="14"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="15"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="26"/>
       <c r="F12" s="26"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -1538,11 +1769,11 @@
       <c r="AL12" s="6"/>
     </row>
     <row r="13" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="15"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="26"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -1578,11 +1809,11 @@
       <c r="AL13" s="6"/>
     </row>
     <row r="14" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="14"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="15"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="26"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
@@ -1618,11 +1849,11 @@
       <c r="AL14" s="6"/>
     </row>
     <row r="15" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="15"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="26"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
@@ -1658,11 +1889,11 @@
       <c r="AL15" s="6"/>
     </row>
     <row r="16" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="15"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="26"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -1698,11 +1929,11 @@
       <c r="AL16" s="6"/>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="15"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="26"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -1738,11 +1969,11 @@
       <c r="AL17" s="6"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="15"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="26"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -1778,11 +2009,11 @@
       <c r="AL18" s="6"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="26"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
@@ -1818,11 +2049,11 @@
       <c r="AL19" s="6"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="15"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="26"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
@@ -1858,11 +2089,11 @@
       <c r="AL20" s="6"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="15"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="26"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
@@ -1898,11 +2129,11 @@
       <c r="AL21" s="6"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="15"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="26"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1938,11 +2169,11 @@
       <c r="AL22" s="6"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="15"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="26"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1982,7 +2213,7 @@
       <c r="B24" s="14"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="15"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="26"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -2022,7 +2253,7 @@
       <c r="B25" s="14"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="15"/>
+      <c r="E25" s="26"/>
       <c r="F25" s="26"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2060,9 +2291,9 @@
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="15"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="26"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2100,9 +2331,9 @@
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="15"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="26"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -2140,9 +2371,9 @@
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="8"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="15"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="26"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -2180,8 +2411,8 @@
     <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" s="8"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
       <c r="E29" s="15"/>
       <c r="F29" s="26"/>
       <c r="G29" s="11"/>
@@ -2340,8 +2571,8 @@
     <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" s="8"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="15"/>
       <c r="F33" s="26"/>
       <c r="G33" s="11"/>
@@ -2380,8 +2611,8 @@
     <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="8"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="15"/>
       <c r="F34" s="26"/>
       <c r="G34" s="11"/>
@@ -2420,8 +2651,8 @@
     <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="8"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="15"/>
       <c r="F35" s="26"/>
       <c r="G35" s="11"/>
@@ -2460,8 +2691,8 @@
     <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="8"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="15"/>
       <c r="F36" s="26"/>
       <c r="G36" s="11"/>
@@ -9803,9 +10034,9 @@
       <formula>NOT(ISERROR(SEARCH("right_triangle",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B214">
+  <conditionalFormatting sqref="B2:B214 A2:B23">
     <cfRule type="containsText" dxfId="0" priority="9" operator="containsText" text="right_triangle">
-      <formula>NOT(ISERROR(SEARCH("right_triangle",B2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("right_triangle",A2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -9816,4 +10047,760 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AT6"/>
+  <sheetViews>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
+      </c>
+      <c r="D1">
+        <v>300</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1" t="str">
+        <f>"10"</f>
+        <v>10</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1">
+        <v>18</v>
+      </c>
+      <c r="S1">
+        <v>30</v>
+      </c>
+      <c r="T1">
+        <v>30</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>270</v>
+      </c>
+      <c r="W1">
+        <v>30</v>
+      </c>
+      <c r="X1">
+        <v>18</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>270</v>
+      </c>
+      <c r="AA1">
+        <v>18</v>
+      </c>
+      <c r="AB1">
+        <v>270</v>
+      </c>
+      <c r="AC1">
+        <v>270</v>
+      </c>
+      <c r="AD1">
+        <v>0</v>
+      </c>
+      <c r="AE1">
+        <v>0</v>
+      </c>
+      <c r="AF1">
+        <v>0</v>
+      </c>
+      <c r="AG1">
+        <v>0</v>
+      </c>
+      <c r="AH1">
+        <v>0</v>
+      </c>
+      <c r="AI1">
+        <v>0</v>
+      </c>
+      <c r="AJ1">
+        <v>0</v>
+      </c>
+      <c r="AK1">
+        <v>0</v>
+      </c>
+      <c r="AL1">
+        <v>0</v>
+      </c>
+      <c r="AM1">
+        <v>0</v>
+      </c>
+      <c r="AN1">
+        <v>0</v>
+      </c>
+      <c r="AO1">
+        <v>0</v>
+      </c>
+      <c r="AP1">
+        <v>0</v>
+      </c>
+      <c r="AQ1">
+        <v>1</v>
+      </c>
+      <c r="AT1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>64</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"7.9"</f>
+        <v>7.9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2">
+        <v>15</v>
+      </c>
+      <c r="S2">
+        <v>40</v>
+      </c>
+      <c r="T2">
+        <v>35</v>
+      </c>
+      <c r="U2">
+        <v>15</v>
+      </c>
+      <c r="V2">
+        <v>120</v>
+      </c>
+      <c r="W2">
+        <v>35</v>
+      </c>
+      <c r="X2">
+        <v>15</v>
+      </c>
+      <c r="Y2">
+        <v>200</v>
+      </c>
+      <c r="Z2">
+        <v>35</v>
+      </c>
+      <c r="AA2">
+        <v>15</v>
+      </c>
+      <c r="AB2">
+        <v>280</v>
+      </c>
+      <c r="AC2">
+        <v>35</v>
+      </c>
+      <c r="AD2">
+        <v>15</v>
+      </c>
+      <c r="AE2">
+        <v>360</v>
+      </c>
+      <c r="AF2">
+        <v>35</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3">
+        <v>240</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"8"</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3">
+        <v>15</v>
+      </c>
+      <c r="S3">
+        <v>25</v>
+      </c>
+      <c r="T3">
+        <v>25</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>25</v>
+      </c>
+      <c r="W3">
+        <v>75</v>
+      </c>
+      <c r="X3">
+        <v>15</v>
+      </c>
+      <c r="Y3">
+        <v>25</v>
+      </c>
+      <c r="Z3">
+        <v>125</v>
+      </c>
+      <c r="AA3">
+        <v>15</v>
+      </c>
+      <c r="AB3">
+        <v>25</v>
+      </c>
+      <c r="AC3">
+        <v>175</v>
+      </c>
+      <c r="AD3">
+        <v>15</v>
+      </c>
+      <c r="AE3">
+        <v>215</v>
+      </c>
+      <c r="AF3">
+        <v>25</v>
+      </c>
+      <c r="AG3">
+        <v>15</v>
+      </c>
+      <c r="AH3">
+        <v>215</v>
+      </c>
+      <c r="AI3">
+        <v>75</v>
+      </c>
+      <c r="AJ3">
+        <v>15</v>
+      </c>
+      <c r="AK3">
+        <v>215</v>
+      </c>
+      <c r="AL3">
+        <v>125</v>
+      </c>
+      <c r="AM3">
+        <v>15</v>
+      </c>
+      <c r="AN3">
+        <v>215</v>
+      </c>
+      <c r="AO3">
+        <v>175</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>1</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <f>"4.75"</f>
+        <v>4.75</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>30</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>18</v>
+      </c>
+      <c r="V4">
+        <v>270</v>
+      </c>
+      <c r="W4">
+        <v>30</v>
+      </c>
+      <c r="X4">
+        <v>18</v>
+      </c>
+      <c r="Y4">
+        <v>30</v>
+      </c>
+      <c r="Z4">
+        <v>270</v>
+      </c>
+      <c r="AA4">
+        <v>18</v>
+      </c>
+      <c r="AB4">
+        <v>270</v>
+      </c>
+      <c r="AC4">
+        <v>270</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>1</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>140</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f>"4.75"</f>
+        <v>4.75</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>